--- a/KINX6AB1.xlsx
+++ b/KINX6AB1.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>dimanche</t>
+    <t>jeudi</t>
   </si>
   <si>
     <t>Réseaux d'opérateurs (KINX6AB1)</t>
@@ -44,10 +44,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>jeudi</t>
-  </si>
-  <si>
-    <t>samedi</t>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>mercredi</t>
   </si>
   <si>
     <t xml:space="preserve">Réseaux d'opérateurs (KINX6AB1)  </t>
@@ -59,10 +59,10 @@
     <t>15:45</t>
   </si>
   <si>
-    <t>lundi</t>
-  </si>
-  <si>
     <t>vendredi</t>
+  </si>
+  <si>
+    <t>mardi</t>
   </si>
   <si>
     <t>Réseaux d'opérateurs (KINX6AB1) /TP/GA</t>
@@ -137,7 +137,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44941.0</v>
+        <v>46037.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -199,7 +199,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>44948.0</v>
+        <v>46044.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>1</v>
@@ -261,7 +261,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>44952.0</v>
+        <v>46048.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>10</v>
@@ -323,7 +323,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>44961.0</v>
+        <v>46057.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>11</v>
@@ -362,7 +362,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="1">
-        <v>44969.0</v>
+        <v>46065.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>1</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="1">
-        <v>44984.0</v>
+        <v>46080.0</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>15</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>16</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>45031.0</v>
+        <v>46127.0</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>11</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="1">
-        <v>45037.0</v>
+        <v>46133.0</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>16</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="1">
-        <v>45050.0</v>
+        <v>46146.0</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>10</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n" s="1">
-        <v>45052.0</v>
+        <v>46148.0</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>11</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n" s="1">
-        <v>45053.0</v>
+        <v>46149.0</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>1</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="1">
-        <v>45057.0</v>
+        <v>46153.0</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="1">
-        <v>45064.0</v>
+        <v>46160.0</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>10</v>
